--- a/Statistics/Test_Report.xlsx
+++ b/Statistics/Test_Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nepathak/Internship_Neetish/socketComm/Statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nepathak/Internship_Neetish/socketcomm/Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,25 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>ECDSA 256, ECDHE 256</t>
-  </si>
-  <si>
-    <t>RSA 2048, ECDHE 256</t>
-  </si>
-  <si>
-    <t>RSA 2048, DHE 2048</t>
-  </si>
-  <si>
-    <t>RSA 2048, DHE 1024</t>
-  </si>
-  <si>
-    <t>RSA 3072</t>
-  </si>
-  <si>
-    <t>RSA 2048</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Machine 1</t>
   </si>
@@ -116,13 +98,7 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Send a file</t>
-  </si>
-  <si>
     <t>Find</t>
-  </si>
-  <si>
-    <t>Mean , Median, 90th Percentile for</t>
   </si>
   <si>
     <t>Connetion Latency (TLS setup)</t>
@@ -142,13 +118,58 @@
   </si>
   <si>
     <t>1000 connection requests sequentially</t>
+  </si>
+  <si>
+    <t>Significance Test</t>
+  </si>
+  <si>
+    <t>Mean , Median, 90th Percentile, Significance Test</t>
+  </si>
+  <si>
+    <t>ECDSA 256, ECDHE 256
+ECDHE-ECDSA-AES256-GCM-SHA384
+ECDHE-ECDSA-AES128-GCM-SHA256</t>
+  </si>
+  <si>
+    <t>RSA 2048, ECDHE 256
+ECDHE-RSA-AES256-GCM-SHA384
+ECDHE-RSA-AES128-GCM-SHA256</t>
+  </si>
+  <si>
+    <t>RSA 3072
+AES256-GCM-SHA384
+AES128-GCM-SHA256</t>
+  </si>
+  <si>
+    <t>RSA 2048
+AES256-GCM-SHA384
+AES128-GCM-SHA256</t>
+  </si>
+  <si>
+    <t>RSA 2048, DHE 1024
+DHE-RSA-AES256-GCM-SHA384
+DHE-RSA-AES128-GCM-SHA256</t>
+  </si>
+  <si>
+    <t>RSA 2048, DHE 2048
+DHE-RSA-AES256-GCM-SHA384
+DHE-RSA-AES128-GCM-SHA256</t>
+  </si>
+  <si>
+    <t>TLS13-AES-256-GCM-SHA384</t>
+  </si>
+  <si>
+    <t>TLS13-CHACHA20-POLY1305-SHA256</t>
+  </si>
+  <si>
+    <t>TLS13-AES-128-GCM-SHA256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +200,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,12 +223,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,10 +240,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,169 +524,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="7" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
